--- a/Results/Lorenz_by_age_LCrrPointNetWorth.xlsx
+++ b/Results/Lorenz_by_age_LCrrPointNetWorth.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>age_bin</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>age_bin_5yr</t>
-  </si>
-  <si>
-    <t>70-75</t>
   </si>
   <si>
     <t>age_bin_10yr</t>
@@ -735,7 +732,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -909,23 +906,6 @@
       </c>
       <c r="E10">
         <v>0.2136980118891083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>0.00319875195720328</v>
-      </c>
-      <c r="C11">
-        <v>0.03441304239078921</v>
-      </c>
-      <c r="D11">
-        <v>0.09551116062558203</v>
-      </c>
-      <c r="E11">
-        <v>0.2094882313458568</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/Results/Lorenz_by_age_LCrrPointNetWorth.xlsx
+++ b/Results/Lorenz_by_age_LCrrPointNetWorth.xlsx
@@ -462,16 +462,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01268527144416657</v>
+        <v>0.001582864817699225</v>
       </c>
       <c r="C2">
-        <v>0.055156609868578</v>
+        <v>0.03245530933421766</v>
       </c>
       <c r="D2">
-        <v>0.1361040695529442</v>
+        <v>0.09779696798524537</v>
       </c>
       <c r="E2">
-        <v>0.2947743577742439</v>
+        <v>0.2372381476731427</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -479,16 +479,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.02279964551957325</v>
+        <v>-0.0007459087716984048</v>
       </c>
       <c r="C3">
-        <v>0.08096008100054328</v>
+        <v>0.03672921350623698</v>
       </c>
       <c r="D3">
-        <v>0.1840300268689274</v>
+        <v>0.1168834235655709</v>
       </c>
       <c r="E3">
-        <v>0.3702572445836713</v>
+        <v>0.2813652226324158</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -496,16 +496,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.0277823577925846</v>
+        <v>0.0006011783247955002</v>
       </c>
       <c r="C4">
-        <v>0.09172365415262811</v>
+        <v>0.04247450218029081</v>
       </c>
       <c r="D4">
-        <v>0.2027468890201252</v>
+        <v>0.1307407285424236</v>
       </c>
       <c r="E4">
-        <v>0.3997018333032575</v>
+        <v>0.3104676561855404</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -513,16 +513,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.03025920261788009</v>
+        <v>0.009372101279834375</v>
       </c>
       <c r="C5">
-        <v>0.09734910462092015</v>
+        <v>0.05798743441832001</v>
       </c>
       <c r="D5">
-        <v>0.2124110625241715</v>
+        <v>0.1542437689779933</v>
       </c>
       <c r="E5">
-        <v>0.4139988571245909</v>
+        <v>0.3435184102535908</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -530,16 +530,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03119070749252896</v>
+        <v>0.01824142196500853</v>
       </c>
       <c r="C6">
-        <v>0.09932230453557264</v>
+        <v>0.07246016959575424</v>
       </c>
       <c r="D6">
-        <v>0.2154020510907557</v>
+        <v>0.1751103290949647</v>
       </c>
       <c r="E6">
-        <v>0.4184073281750587</v>
+        <v>0.3684927036409594</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -547,16 +547,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.03078967092933346</v>
+        <v>0.02323333857990465</v>
       </c>
       <c r="C7">
-        <v>0.09844452014098364</v>
+        <v>0.08145261189390031</v>
       </c>
       <c r="D7">
-        <v>0.2142105613546413</v>
+        <v>0.1877971626268973</v>
       </c>
       <c r="E7">
-        <v>0.4165718711018994</v>
+        <v>0.3806085007891786</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -564,16 +564,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0297391141724675</v>
+        <v>0.02408598800423544</v>
       </c>
       <c r="C8">
-        <v>0.09597576518913539</v>
+        <v>0.08205584913811813</v>
       </c>
       <c r="D8">
-        <v>0.2101464809107068</v>
+        <v>0.1875675541666817</v>
       </c>
       <c r="E8">
-        <v>0.4107095569278597</v>
+        <v>0.3796722118029505</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -581,16 +581,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0284803655428679</v>
+        <v>0.02325050282488948</v>
       </c>
       <c r="C9">
-        <v>0.09268843471289674</v>
+        <v>0.07944574816628962</v>
       </c>
       <c r="D9">
-        <v>0.204745978987649</v>
+        <v>0.1829000877260878</v>
       </c>
       <c r="E9">
-        <v>0.4030262935128567</v>
+        <v>0.3725327601800408</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -598,16 +598,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.02755196776894512</v>
+        <v>0.02208711002900622</v>
       </c>
       <c r="C10">
-        <v>0.09016946369472686</v>
+        <v>0.07632242826641517</v>
       </c>
       <c r="D10">
-        <v>0.2004016536091927</v>
+        <v>0.1769482614720676</v>
       </c>
       <c r="E10">
-        <v>0.3968800542645806</v>
+        <v>0.3638438421333888</v>
       </c>
     </row>
   </sheetData>
@@ -645,16 +645,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01268527144416657</v>
+        <v>0.001582864817699225</v>
       </c>
       <c r="C2">
-        <v>0.055156609868578</v>
+        <v>0.03245530933421766</v>
       </c>
       <c r="D2">
-        <v>0.1361040695529442</v>
+        <v>0.09779696798524537</v>
       </c>
       <c r="E2">
-        <v>0.2947743577742439</v>
+        <v>0.2372381476731427</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -662,16 +662,16 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.02394594885961981</v>
+        <v>-0.0002659506110192058</v>
       </c>
       <c r="C3">
-        <v>0.08326490130799112</v>
+        <v>0.03902747974518321</v>
       </c>
       <c r="D3">
-        <v>0.1885841530198142</v>
+        <v>0.1226509462066624</v>
       </c>
       <c r="E3">
-        <v>0.3798492896119268</v>
+        <v>0.2946909076209057</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -679,16 +679,16 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.02991248419438229</v>
+        <v>0.01342847877888379</v>
       </c>
       <c r="C4">
-        <v>0.09635857651170314</v>
+        <v>0.06391894172670295</v>
       </c>
       <c r="D4">
-        <v>0.2107588364243666</v>
+        <v>0.1625751596521325</v>
       </c>
       <c r="E4">
-        <v>0.4119804470501743</v>
+        <v>0.3536324974972478</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -696,16 +696,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.02995553841173604</v>
+        <v>0.02331079150650988</v>
       </c>
       <c r="C5">
-        <v>0.09637128533302126</v>
+        <v>0.08086837257482735</v>
       </c>
       <c r="D5">
-        <v>0.2107487552207717</v>
+        <v>0.1859033580011066</v>
       </c>
       <c r="E5">
-        <v>0.4115529665847326</v>
+        <v>0.37761309490064</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -713,16 +713,16 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.02803343753892238</v>
+        <v>0.02265916598987138</v>
       </c>
       <c r="C6">
-        <v>0.09147753503254058</v>
+        <v>0.07791524785385777</v>
       </c>
       <c r="D6">
-        <v>0.2026554135532319</v>
+        <v>0.1799996033585577</v>
       </c>
       <c r="E6">
-        <v>0.4000566063094096</v>
+        <v>0.3683604986178114</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Lorenz_by_age_LCrrPointNetWorth.xlsx
+++ b/Results/Lorenz_by_age_LCrrPointNetWorth.xlsx
@@ -462,16 +462,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.001582864817699225</v>
+        <v>0.004585172139451581</v>
       </c>
       <c r="C2">
-        <v>0.03245530933421766</v>
+        <v>0.03681541283306183</v>
       </c>
       <c r="D2">
-        <v>0.09779696798524537</v>
+        <v>0.1032480659236801</v>
       </c>
       <c r="E2">
-        <v>0.2372381476731427</v>
+        <v>0.2430450542528428</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -479,16 +479,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0007459087716984048</v>
+        <v>0.005932338776050278</v>
       </c>
       <c r="C3">
-        <v>0.03672921350623698</v>
+        <v>0.04609660892302904</v>
       </c>
       <c r="D3">
-        <v>0.1168834235655709</v>
+        <v>0.1281139636909457</v>
       </c>
       <c r="E3">
-        <v>0.2813652226324158</v>
+        <v>0.2928733058252729</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -496,16 +496,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.0006011783247955002</v>
+        <v>0.00808603140168055</v>
       </c>
       <c r="C4">
-        <v>0.04247450218029081</v>
+        <v>0.05238314711543644</v>
       </c>
       <c r="D4">
-        <v>0.1307407285424236</v>
+        <v>0.1422986169452694</v>
       </c>
       <c r="E4">
-        <v>0.3104676561855404</v>
+        <v>0.3217862512225091</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -513,16 +513,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.009372101279834375</v>
+        <v>0.01353347772347893</v>
       </c>
       <c r="C5">
-        <v>0.05798743441832001</v>
+        <v>0.06343025505539715</v>
       </c>
       <c r="D5">
-        <v>0.1542437689779933</v>
+        <v>0.1604234623335345</v>
       </c>
       <c r="E5">
-        <v>0.3435184102535908</v>
+        <v>0.3495145723413063</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -530,16 +530,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.01824142196500853</v>
+        <v>0.01963463401453981</v>
       </c>
       <c r="C6">
-        <v>0.07246016959575424</v>
+        <v>0.07441450684769892</v>
       </c>
       <c r="D6">
-        <v>0.1751103290949647</v>
+        <v>0.1771608641952848</v>
       </c>
       <c r="E6">
-        <v>0.3684927036409594</v>
+        <v>0.3702157955086246</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -547,16 +547,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02323333857990465</v>
+        <v>0.02347594966620606</v>
       </c>
       <c r="C7">
-        <v>0.08145261189390031</v>
+        <v>0.08172601842075888</v>
       </c>
       <c r="D7">
-        <v>0.1877971626268973</v>
+        <v>0.1880083317830099</v>
       </c>
       <c r="E7">
-        <v>0.3806085007891786</v>
+        <v>0.3805809479571703</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -564,16 +564,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.02408598800423544</v>
+        <v>0.02406971668755034</v>
       </c>
       <c r="C8">
-        <v>0.08205584913811813</v>
+        <v>0.08189737093181698</v>
       </c>
       <c r="D8">
-        <v>0.1875675541666817</v>
+        <v>0.1872238743173898</v>
       </c>
       <c r="E8">
-        <v>0.3796722118029505</v>
+        <v>0.3790052135394387</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -581,16 +581,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02325050282488948</v>
+        <v>0.02314554380329366</v>
       </c>
       <c r="C9">
-        <v>0.07944574816628962</v>
+        <v>0.07908208140248428</v>
       </c>
       <c r="D9">
-        <v>0.1829000877260878</v>
+        <v>0.182177751718809</v>
       </c>
       <c r="E9">
-        <v>0.3725327601800408</v>
+        <v>0.3714298937400673</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -598,16 +598,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.02208711002900622</v>
+        <v>0.02200455309020379</v>
       </c>
       <c r="C10">
-        <v>0.07632242826641517</v>
+        <v>0.0759505214018745</v>
       </c>
       <c r="D10">
-        <v>0.1769482614720676</v>
+        <v>0.1760792940456853</v>
       </c>
       <c r="E10">
-        <v>0.3638438421333888</v>
+        <v>0.362362879819612</v>
       </c>
     </row>
   </sheetData>
@@ -645,16 +645,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.001582864817699225</v>
+        <v>0.004585172139451581</v>
       </c>
       <c r="C2">
-        <v>0.03245530933421766</v>
+        <v>0.03681541283306183</v>
       </c>
       <c r="D2">
-        <v>0.09779696798524537</v>
+        <v>0.1032480659236801</v>
       </c>
       <c r="E2">
-        <v>0.2372381476731427</v>
+        <v>0.2430450542528428</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -662,16 +662,16 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>-0.0002659506110192058</v>
+        <v>0.006809658413969065</v>
       </c>
       <c r="C3">
-        <v>0.03902747974518321</v>
+        <v>0.04867378753866794</v>
       </c>
       <c r="D3">
-        <v>0.1226509462066624</v>
+        <v>0.1340649769388735</v>
       </c>
       <c r="E3">
-        <v>0.2946909076209057</v>
+        <v>0.3061596008529129</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -679,16 +679,16 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.01342847877888379</v>
+        <v>0.01610026231136644</v>
       </c>
       <c r="C4">
-        <v>0.06391894172670295</v>
+        <v>0.06753329070099756</v>
       </c>
       <c r="D4">
-        <v>0.1625751596521325</v>
+        <v>0.1665972536619322</v>
       </c>
       <c r="E4">
-        <v>0.3536324974972478</v>
+        <v>0.3573367485780175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -696,16 +696,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.02331079150650988</v>
+        <v>0.0234228609263284</v>
       </c>
       <c r="C5">
-        <v>0.08086837257482735</v>
+        <v>0.08089420490049486</v>
       </c>
       <c r="D5">
-        <v>0.1859033580011066</v>
+        <v>0.1857963293237153</v>
       </c>
       <c r="E5">
-        <v>0.37761309490064</v>
+        <v>0.37720032739759</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -713,16 +713,16 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.02265916598987138</v>
+        <v>0.02257205352072954</v>
       </c>
       <c r="C6">
-        <v>0.07791524785385777</v>
+        <v>0.07755810710519906</v>
       </c>
       <c r="D6">
-        <v>0.1799996033585577</v>
+        <v>0.1792235240612732</v>
       </c>
       <c r="E6">
-        <v>0.3683604986178114</v>
+        <v>0.3670973481236853</v>
       </c>
     </row>
   </sheetData>
